--- a/Homework/HW3_Data.xlsx
+++ b/Homework/HW3_Data.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottmoura/Documents/CE295/S18/HW3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bash\cee295\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25596" yWindow="456" windowWidth="33600" windowHeight="20544" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Node-Data" sheetId="1" r:id="rId1"/>
     <sheet name="Line-Data" sheetId="2" r:id="rId2"/>
     <sheet name="Set-Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Node Data</t>
   </si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>s_j,max</t>
-  </si>
-  <si>
-    <t>you will fill this out with zeros and ones</t>
   </si>
   <si>
     <t>MW</t>
@@ -322,6 +316,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,23 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="237" workbookViewId="0">
-      <selection activeCell="C17" sqref="B5:C17"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.1640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="2" max="5" width="11.19921875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -625,22 +622,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -657,7 +654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -674,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -691,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -708,7 +705,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -776,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -793,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -810,7 +807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>11</v>
       </c>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -861,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -885,35 +882,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:N72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6" customWidth="1"/>
-    <col min="2" max="14" width="9.1640625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="14" width="5.69921875" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -957,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -1001,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1089,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1133,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1222,7 +1218,7 @@
       </c>
       <c r="XFD11" s="10"/>
     </row>
-    <row r="12" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1266,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1354,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14 16384:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>1.1697639931220499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1530,17 +1526,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>0</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -1672,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1716,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>5</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>7</v>
       </c>
@@ -1936,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>8</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>9</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>10</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>4.49084812725359E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>11</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>12</v>
       </c>
@@ -2156,17 +2152,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -2254,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>3</v>
       </c>
@@ -2386,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>4</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>5</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>6</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>7</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>8</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>9</v>
       </c>
@@ -2650,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>10</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>1.2927</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>11</v>
       </c>
@@ -2738,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>12</v>
       </c>
@@ -2782,17 +2778,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -2836,241 +2832,683 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>0</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="6">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <f>SUM(B60:N60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>1</v>
       </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" ref="O61:O72" si="0">SUM(B61:N61)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>2</v>
       </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>3</v>
       </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>4</v>
       </c>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>5</v>
       </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>6</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>7</v>
       </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>8</v>
       </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>9</v>
       </c>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>10</v>
       </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>11</v>
       </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>12</v>
       </c>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
+        <f>SUM(B60:B72)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" ref="C73:N73" si="1">SUM(C60:C72)</f>
+        <v>4</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3082,21 +3520,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3112,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3123,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3131,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3139,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3147,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3155,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3163,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3171,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3179,7 +3617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3187,7 +3625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3195,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3203,7 +3641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3211,50 +3649,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
     </row>
   </sheetData>
